--- a/도서정보/샘플-도서정보(2021-04-29).xlsx
+++ b/도서정보/샘플-도서정보(2021-04-29).xlsx
@@ -5,11 +5,11 @@
   <workbookPr checkCompatibility="1" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizworks\DBMS\도서정보\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\oraclexe\DBMS\도서정보\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7605"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7605"/>
   </bookViews>
   <sheets>
     <sheet name="도서목록" sheetId="2" r:id="rId1"/>
@@ -17,12 +17,12 @@
     <sheet name="저자목록" sheetId="5" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="703">
   <si>
     <t>다산초당</t>
   </si>
@@ -2109,13 +2109,7 @@
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
-    <t>2019-04-11</t>
-  </si>
-  <si>
     <t>2019-04-10</t>
-  </si>
-  <si>
-    <t>2019-03-31</t>
   </si>
   <si>
     <t>2019-03-30</t>
@@ -2196,17 +2190,13 @@
   </si>
   <si>
     <t>C0048</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>출판일(문자열)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
@@ -3235,10 +3225,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
@@ -3246,11 +3236,11 @@
     <col min="1" max="1" width="18.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="79.5" style="1" customWidth="1"/>
     <col min="3" max="4" width="14.25" style="1" customWidth="1"/>
-    <col min="5" max="6" width="20.75" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="20.75" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.5" customHeight="1">
+    <row r="1" spans="1:7" ht="31.5" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>203</v>
       </c>
@@ -3264,19 +3254,16 @@
         <v>292</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>702</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>705</v>
-      </c>
-      <c r="G1" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="31.5" customHeight="1">
+    <row r="2" spans="1:7" ht="31.5" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>207</v>
       </c>
@@ -3284,26 +3271,23 @@
         <v>208</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D2" s="7" t="str">
         <f ca="1">"A"&amp;TEXT(RANDBETWEEN(1,34),"0000")</f>
-        <v>A0021</v>
+        <v>A0023</v>
       </c>
       <c r="E2" s="8">
         <v>43570</v>
       </c>
-      <c r="F2" s="8">
-        <v>43570</v>
-      </c>
-      <c r="G2" s="9">
+      <c r="F2" s="9">
         <v>272</v>
       </c>
-      <c r="H2" s="10">
+      <c r="G2" s="10">
         <v>15000</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="31.5" customHeight="1">
+    <row r="3" spans="1:7" ht="31.5" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>210</v>
       </c>
@@ -3315,22 +3299,19 @@
       </c>
       <c r="D3" s="7" t="str">
         <f t="shared" ref="D3:D31" ca="1" si="0">"A"&amp;TEXT(RANDBETWEEN(1,34),"0000")</f>
-        <v>A0019</v>
+        <v>A0027</v>
       </c>
       <c r="E3" s="8">
         <v>43566</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>676</v>
-      </c>
-      <c r="G3" s="9">
+      <c r="F3" s="9">
         <v>132</v>
       </c>
-      <c r="H3" s="10">
+      <c r="G3" s="10">
         <v>13000</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="31.5" customHeight="1">
+    <row r="4" spans="1:7" ht="31.5" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>213</v>
       </c>
@@ -3342,22 +3323,19 @@
       </c>
       <c r="D4" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0028</v>
+        <v>A0007</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>677</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>677</v>
-      </c>
-      <c r="G4" s="9">
+        <v>676</v>
+      </c>
+      <c r="F4" s="9">
         <v>388</v>
       </c>
-      <c r="H4" s="10">
+      <c r="G4" s="10">
         <v>14000</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="31.5" customHeight="1">
+    <row r="5" spans="1:7" ht="31.5" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>216</v>
       </c>
@@ -3369,22 +3347,19 @@
       </c>
       <c r="D5" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0023</v>
+        <v>A0011</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>677</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>677</v>
-      </c>
-      <c r="G5" s="9">
+        <v>676</v>
+      </c>
+      <c r="F5" s="9">
         <v>440</v>
       </c>
-      <c r="H5" s="10">
+      <c r="G5" s="10">
         <v>14000</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="31.5" customHeight="1">
+    <row r="6" spans="1:7" ht="31.5" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>218</v>
       </c>
@@ -3396,22 +3371,19 @@
       </c>
       <c r="D6" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0016</v>
+        <v>A0013</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>677</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>677</v>
-      </c>
-      <c r="G6" s="9">
+        <v>676</v>
+      </c>
+      <c r="F6" s="9">
         <v>280</v>
       </c>
-      <c r="H6" s="10">
+      <c r="G6" s="10">
         <v>15000</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="31.5" customHeight="1">
+    <row r="7" spans="1:7" ht="31.5" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>221</v>
       </c>
@@ -3423,22 +3395,19 @@
       </c>
       <c r="D7" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0016</v>
+        <v>A0003</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>677</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>677</v>
-      </c>
-      <c r="G7" s="9">
+        <v>676</v>
+      </c>
+      <c r="F7" s="9">
         <v>368</v>
       </c>
-      <c r="H7" s="10">
+      <c r="G7" s="10">
         <v>25000</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="31.5" customHeight="1">
+    <row r="8" spans="1:7" ht="31.5" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>224</v>
       </c>
@@ -3450,22 +3419,19 @@
       </c>
       <c r="D8" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0030</v>
+        <v>A0004</v>
       </c>
       <c r="E8" s="8">
         <v>43555</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>678</v>
-      </c>
-      <c r="G8" s="9">
+      <c r="F8" s="9">
         <v>536</v>
       </c>
-      <c r="H8" s="10">
+      <c r="G8" s="10">
         <v>22000</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="31.5" customHeight="1">
+    <row r="9" spans="1:7" ht="31.5" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>226</v>
       </c>
@@ -3477,22 +3443,19 @@
       </c>
       <c r="D9" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0026</v>
+        <v>A0003</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>679</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>679</v>
-      </c>
-      <c r="G9" s="9">
+        <v>677</v>
+      </c>
+      <c r="F9" s="9">
         <v>232</v>
       </c>
-      <c r="H9" s="10">
+      <c r="G9" s="10">
         <v>13000</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="31.5" customHeight="1">
+    <row r="10" spans="1:7" ht="31.5" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>229</v>
       </c>
@@ -3504,22 +3467,19 @@
       </c>
       <c r="D10" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0020</v>
+        <v>A0009</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>680</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>680</v>
-      </c>
-      <c r="G10" s="9">
+        <v>678</v>
+      </c>
+      <c r="F10" s="9">
         <v>264</v>
       </c>
-      <c r="H10" s="10">
+      <c r="G10" s="10">
         <v>15000</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="31.5" customHeight="1">
+    <row r="11" spans="1:7" ht="31.5" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>231</v>
       </c>
@@ -3534,19 +3494,16 @@
         <v>A0002</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>681</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>681</v>
-      </c>
-      <c r="G11" s="9">
+        <v>679</v>
+      </c>
+      <c r="F11" s="9">
         <v>500</v>
       </c>
-      <c r="H11" s="10">
+      <c r="G11" s="10">
         <v>13800</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="31.5" customHeight="1">
+    <row r="12" spans="1:7" ht="31.5" customHeight="1">
       <c r="A12" s="6" t="s">
         <v>234</v>
       </c>
@@ -3558,22 +3515,19 @@
       </c>
       <c r="D12" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0029</v>
+        <v>A0006</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>682</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>682</v>
-      </c>
-      <c r="G12" s="9">
+        <v>680</v>
+      </c>
+      <c r="F12" s="9">
         <v>248</v>
       </c>
-      <c r="H12" s="10">
+      <c r="G12" s="10">
         <v>13800</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="31.5" customHeight="1">
+    <row r="13" spans="1:7" ht="31.5" customHeight="1">
       <c r="A13" s="6" t="s">
         <v>237</v>
       </c>
@@ -3585,22 +3539,19 @@
       </c>
       <c r="D13" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0023</v>
+        <v>A0034</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>683</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>683</v>
-      </c>
-      <c r="G13" s="9">
+        <v>681</v>
+      </c>
+      <c r="F13" s="9">
         <v>376</v>
       </c>
-      <c r="H13" s="10">
+      <c r="G13" s="10">
         <v>16800</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="31.5" customHeight="1">
+    <row r="14" spans="1:7" ht="31.5" customHeight="1">
       <c r="A14" s="6" t="s">
         <v>240</v>
       </c>
@@ -3612,22 +3563,19 @@
       </c>
       <c r="D14" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0012</v>
+        <v>A0030</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>684</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>684</v>
-      </c>
-      <c r="G14" s="9">
+        <v>682</v>
+      </c>
+      <c r="F14" s="9">
         <v>360</v>
       </c>
-      <c r="H14" s="10">
+      <c r="G14" s="10">
         <v>16000</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="31.5" customHeight="1">
+    <row r="15" spans="1:7" ht="31.5" customHeight="1">
       <c r="A15" s="6" t="s">
         <v>243</v>
       </c>
@@ -3639,22 +3587,19 @@
       </c>
       <c r="D15" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0034</v>
+        <v>A0013</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>685</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>685</v>
-      </c>
-      <c r="G15" s="9">
+        <v>683</v>
+      </c>
+      <c r="F15" s="9">
         <v>416</v>
       </c>
-      <c r="H15" s="10">
+      <c r="G15" s="10">
         <v>16000</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="31.5" customHeight="1">
+    <row r="16" spans="1:7" ht="31.5" customHeight="1">
       <c r="A16" s="6" t="s">
         <v>246</v>
       </c>
@@ -3666,22 +3611,19 @@
       </c>
       <c r="D16" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0018</v>
+        <v>A0033</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>686</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>686</v>
-      </c>
-      <c r="G16" s="9">
+        <v>684</v>
+      </c>
+      <c r="F16" s="9">
         <v>252</v>
       </c>
-      <c r="H16" s="10">
+      <c r="G16" s="10">
         <v>14000</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="31.5" customHeight="1">
+    <row r="17" spans="1:7" ht="31.5" customHeight="1">
       <c r="A17" s="6" t="s">
         <v>249</v>
       </c>
@@ -3693,22 +3635,19 @@
       </c>
       <c r="D17" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0015</v>
+        <v>A0014</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>687</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>687</v>
-      </c>
-      <c r="G17" s="9">
+        <v>685</v>
+      </c>
+      <c r="F17" s="9">
         <v>456</v>
       </c>
-      <c r="H17" s="10">
+      <c r="G17" s="10">
         <v>18000</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="31.5" customHeight="1">
+    <row r="18" spans="1:7" ht="31.5" customHeight="1">
       <c r="A18" s="6" t="s">
         <v>251</v>
       </c>
@@ -3720,22 +3659,19 @@
       </c>
       <c r="D18" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0006</v>
+        <v>A0025</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>688</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>688</v>
-      </c>
-      <c r="G18" s="9">
+        <v>686</v>
+      </c>
+      <c r="F18" s="9">
         <v>252</v>
       </c>
-      <c r="H18" s="10">
+      <c r="G18" s="10">
         <v>13500</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="31.5" customHeight="1">
+    <row r="19" spans="1:7" ht="31.5" customHeight="1">
       <c r="A19" s="6" t="s">
         <v>254</v>
       </c>
@@ -3747,22 +3683,19 @@
       </c>
       <c r="D19" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0024</v>
+        <v>A0023</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>689</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>689</v>
-      </c>
-      <c r="G19" s="9">
+        <v>687</v>
+      </c>
+      <c r="F19" s="9">
         <v>240</v>
       </c>
-      <c r="H19" s="10">
+      <c r="G19" s="10">
         <v>13800</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="31.5" customHeight="1">
+    <row r="20" spans="1:7" ht="31.5" customHeight="1">
       <c r="A20" s="6" t="s">
         <v>257</v>
       </c>
@@ -3774,22 +3707,19 @@
       </c>
       <c r="D20" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0025</v>
+        <v>A0006</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>690</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>690</v>
-      </c>
-      <c r="G20" s="9">
+        <v>688</v>
+      </c>
+      <c r="F20" s="9">
         <v>280</v>
       </c>
-      <c r="H20" s="10">
+      <c r="G20" s="10">
         <v>15000</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="31.5" customHeight="1">
+    <row r="21" spans="1:7" ht="31.5" customHeight="1">
       <c r="A21" s="6" t="s">
         <v>260</v>
       </c>
@@ -3801,22 +3731,19 @@
       </c>
       <c r="D21" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0028</v>
+        <v>A0023</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>691</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>691</v>
-      </c>
-      <c r="G21" s="9">
+        <v>689</v>
+      </c>
+      <c r="F21" s="9">
         <v>316</v>
       </c>
-      <c r="H21" s="10">
+      <c r="G21" s="10">
         <v>15800</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="31.5" customHeight="1">
+    <row r="22" spans="1:7" ht="31.5" customHeight="1">
       <c r="A22" s="6" t="s">
         <v>263</v>
       </c>
@@ -3828,22 +3755,19 @@
       </c>
       <c r="D22" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0033</v>
+        <v>A0019</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>692</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>692</v>
-      </c>
-      <c r="G22" s="9">
+        <v>690</v>
+      </c>
+      <c r="F22" s="9">
         <v>256</v>
       </c>
-      <c r="H22" s="10">
+      <c r="G22" s="10">
         <v>13500</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="31.5" customHeight="1">
+    <row r="23" spans="1:7" ht="31.5" customHeight="1">
       <c r="A23" s="6" t="s">
         <v>266</v>
       </c>
@@ -3855,22 +3779,19 @@
       </c>
       <c r="D23" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0017</v>
+        <v>A0031</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>693</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>693</v>
-      </c>
-      <c r="G23" s="9">
+        <v>691</v>
+      </c>
+      <c r="F23" s="9">
         <v>272</v>
       </c>
-      <c r="H23" s="10">
+      <c r="G23" s="10">
         <v>14800</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="31.5" customHeight="1">
+    <row r="24" spans="1:7" ht="31.5" customHeight="1">
       <c r="A24" s="6" t="s">
         <v>269</v>
       </c>
@@ -3882,22 +3803,19 @@
       </c>
       <c r="D24" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0014</v>
+        <v>A0028</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>694</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>694</v>
-      </c>
-      <c r="G24" s="9">
+        <v>692</v>
+      </c>
+      <c r="F24" s="9">
         <v>232</v>
       </c>
-      <c r="H24" s="10">
+      <c r="G24" s="10">
         <v>13500</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="31.5" customHeight="1">
+    <row r="25" spans="1:7" ht="31.5" customHeight="1">
       <c r="A25" s="6" t="s">
         <v>272</v>
       </c>
@@ -3909,22 +3827,19 @@
       </c>
       <c r="D25" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0029</v>
+        <v>A0031</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>695</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>695</v>
-      </c>
-      <c r="G25" s="9">
+        <v>693</v>
+      </c>
+      <c r="F25" s="9">
         <v>236</v>
       </c>
-      <c r="H25" s="10">
+      <c r="G25" s="10">
         <v>14000</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="31.5" customHeight="1">
+    <row r="26" spans="1:7" ht="31.5" customHeight="1">
       <c r="A26" s="6" t="s">
         <v>275</v>
       </c>
@@ -3936,22 +3851,19 @@
       </c>
       <c r="D26" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0019</v>
+        <v>A0034</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>696</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>696</v>
-      </c>
-      <c r="G26" s="9">
+        <v>694</v>
+      </c>
+      <c r="F26" s="9">
         <v>376</v>
       </c>
-      <c r="H26" s="10">
+      <c r="G26" s="10">
         <v>16500</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="31.5" customHeight="1">
+    <row r="27" spans="1:7" ht="31.5" customHeight="1">
       <c r="A27" s="6" t="s">
         <v>277</v>
       </c>
@@ -3963,22 +3875,19 @@
       </c>
       <c r="D27" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0002</v>
+        <v>A0033</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>697</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>697</v>
-      </c>
-      <c r="G27" s="9">
+        <v>695</v>
+      </c>
+      <c r="F27" s="9">
         <v>228</v>
       </c>
-      <c r="H27" s="10">
+      <c r="G27" s="10">
         <v>13500</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="31.5" customHeight="1">
+    <row r="28" spans="1:7" ht="31.5" customHeight="1">
       <c r="A28" s="6" t="s">
         <v>280</v>
       </c>
@@ -3990,22 +3899,19 @@
       </c>
       <c r="D28" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0020</v>
+        <v>A0027</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>698</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>698</v>
-      </c>
-      <c r="G28" s="9">
+        <v>696</v>
+      </c>
+      <c r="F28" s="9">
         <v>232</v>
       </c>
-      <c r="H28" s="10">
+      <c r="G28" s="10">
         <v>14800</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="31.5" customHeight="1">
+    <row r="29" spans="1:7" ht="31.5" customHeight="1">
       <c r="A29" s="6" t="s">
         <v>283</v>
       </c>
@@ -4017,22 +3923,19 @@
       </c>
       <c r="D29" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0028</v>
+        <v>A0017</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>699</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>699</v>
-      </c>
-      <c r="G29" s="9">
+        <v>697</v>
+      </c>
+      <c r="F29" s="9">
         <v>240</v>
       </c>
-      <c r="H29" s="10">
+      <c r="G29" s="10">
         <v>14000</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="31.5" customHeight="1">
+    <row r="30" spans="1:7" ht="31.5" customHeight="1">
       <c r="A30" s="6" t="s">
         <v>286</v>
       </c>
@@ -4047,19 +3950,16 @@
         <v>A0019</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>700</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>700</v>
-      </c>
-      <c r="G30" s="9">
+        <v>698</v>
+      </c>
+      <c r="F30" s="9">
         <v>464</v>
       </c>
-      <c r="H30" s="10">
+      <c r="G30" s="10">
         <v>20000</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="31.5" customHeight="1">
+    <row r="31" spans="1:7" ht="31.5" customHeight="1">
       <c r="A31" s="6" t="s">
         <v>289</v>
       </c>
@@ -4071,18 +3971,15 @@
       </c>
       <c r="D31" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0018</v>
+        <v>A0020</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>701</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>701</v>
-      </c>
-      <c r="G31" s="9">
+        <v>699</v>
+      </c>
+      <c r="F31" s="9">
         <v>436</v>
       </c>
-      <c r="H31" s="10">
+      <c r="G31" s="10">
         <v>18000</v>
       </c>
     </row>
@@ -6370,7 +6267,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B1" t="s">
         <v>671</v>
@@ -6403,7 +6300,7 @@
       </c>
       <c r="E2" t="str">
         <f ca="1">"A"&amp;TEXT(RANDBETWEEN(1,34),"0000")</f>
-        <v>A0033</v>
+        <v>A0028</v>
       </c>
       <c r="F2" t="s">
         <v>380</v>
@@ -6433,7 +6330,7 @@
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E31" ca="1" si="0">"A"&amp;TEXT(RANDBETWEEN(1,34),"0000")</f>
-        <v>A0033</v>
+        <v>A0019</v>
       </c>
       <c r="F3" t="s">
         <v>416</v>
@@ -6463,7 +6360,7 @@
       </c>
       <c r="E4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0009</v>
+        <v>A0005</v>
       </c>
       <c r="F4" t="s">
         <v>383</v>
@@ -6493,7 +6390,7 @@
       </c>
       <c r="E5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0032</v>
+        <v>A0009</v>
       </c>
       <c r="F5" t="s">
         <v>419</v>
@@ -6523,7 +6420,7 @@
       </c>
       <c r="E6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0031</v>
+        <v>A0017</v>
       </c>
       <c r="G6" s="15">
         <v>43565</v>
@@ -6550,7 +6447,7 @@
       </c>
       <c r="E7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0006</v>
+        <v>A0008</v>
       </c>
       <c r="G7" s="15">
         <v>43427</v>
@@ -6577,7 +6474,7 @@
       </c>
       <c r="E8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0007</v>
+        <v>A0002</v>
       </c>
       <c r="G8" s="15">
         <v>43565</v>
@@ -6604,7 +6501,7 @@
       </c>
       <c r="E9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0011</v>
+        <v>A0031</v>
       </c>
       <c r="F9" t="s">
         <v>428</v>
@@ -6634,7 +6531,7 @@
       </c>
       <c r="E10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0003</v>
+        <v>A0014</v>
       </c>
       <c r="F10" t="s">
         <v>398</v>
@@ -6664,7 +6561,7 @@
       </c>
       <c r="E11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0015</v>
+        <v>A0018</v>
       </c>
       <c r="G11" s="15">
         <v>43544</v>
@@ -6691,7 +6588,7 @@
       </c>
       <c r="E12" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0022</v>
+        <v>A0002</v>
       </c>
       <c r="G12" s="15">
         <v>43539</v>
@@ -6718,7 +6615,7 @@
       </c>
       <c r="E13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0010</v>
+        <v>A0027</v>
       </c>
       <c r="F13" t="s">
         <v>371</v>
@@ -6748,7 +6645,7 @@
       </c>
       <c r="E14" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0017</v>
+        <v>A0034</v>
       </c>
       <c r="F14" t="s">
         <v>428</v>
@@ -6778,7 +6675,7 @@
       </c>
       <c r="E15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0004</v>
+        <v>A0025</v>
       </c>
       <c r="G15" s="15">
         <v>43419</v>
@@ -6805,7 +6702,7 @@
       </c>
       <c r="E16" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0014</v>
+        <v>A0015</v>
       </c>
       <c r="F16" t="s">
         <v>416</v>
@@ -6835,7 +6732,7 @@
       </c>
       <c r="E17" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0013</v>
+        <v>A0034</v>
       </c>
       <c r="G17" s="15">
         <v>43404</v>
@@ -6862,7 +6759,7 @@
       </c>
       <c r="E18" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0023</v>
+        <v>A0016</v>
       </c>
       <c r="F18" t="s">
         <v>446</v>
@@ -6892,7 +6789,7 @@
       </c>
       <c r="E19" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0019</v>
+        <v>A0017</v>
       </c>
       <c r="F19" t="s">
         <v>386</v>
@@ -6922,7 +6819,7 @@
       </c>
       <c r="E20" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0020</v>
+        <v>A0034</v>
       </c>
       <c r="G20" s="15">
         <v>43511</v>
@@ -6949,7 +6846,7 @@
       </c>
       <c r="E21" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0012</v>
+        <v>A0009</v>
       </c>
       <c r="F21" t="s">
         <v>449</v>
@@ -6979,7 +6876,7 @@
       </c>
       <c r="E22" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0004</v>
+        <v>A0012</v>
       </c>
       <c r="G22" s="15">
         <v>43483</v>
@@ -7006,7 +6903,7 @@
       </c>
       <c r="E23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0021</v>
+        <v>A0026</v>
       </c>
       <c r="G23" s="15">
         <v>43493</v>
@@ -7033,7 +6930,7 @@
       </c>
       <c r="E24" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0008</v>
+        <v>A0017</v>
       </c>
       <c r="G24" s="15">
         <v>43523</v>
@@ -7060,7 +6957,7 @@
       </c>
       <c r="E25" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0014</v>
+        <v>A0002</v>
       </c>
       <c r="G25" s="15">
         <v>43565</v>
@@ -7087,7 +6984,7 @@
       </c>
       <c r="E26" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0010</v>
+        <v>A0029</v>
       </c>
       <c r="F26" t="s">
         <v>455</v>
@@ -7117,7 +7014,7 @@
       </c>
       <c r="E27" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0034</v>
+        <v>A0031</v>
       </c>
       <c r="G27" s="15">
         <v>43428</v>
@@ -7144,7 +7041,7 @@
       </c>
       <c r="E28" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0024</v>
+        <v>A0020</v>
       </c>
       <c r="G28" s="15">
         <v>43459</v>
@@ -7171,7 +7068,7 @@
       </c>
       <c r="E29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0029</v>
+        <v>A0015</v>
       </c>
       <c r="G29" s="15">
         <v>43494</v>
@@ -7198,7 +7095,7 @@
       </c>
       <c r="E30" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0002</v>
+        <v>A0027</v>
       </c>
       <c r="G30" s="15">
         <v>43565</v>
@@ -7225,7 +7122,7 @@
       </c>
       <c r="E31" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0022</v>
+        <v>A0012</v>
       </c>
       <c r="F31" t="s">
         <v>377</v>
